--- a/source/pinogio/dataset/files/Sample_XLSX.xlsx
+++ b/source/pinogio/dataset/files/Sample_XLSX.xlsx
@@ -1,16 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon\Documents\GitHub\pinogio_gPocket_docs\source\pinogio\dataset\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1869DAD-500D-472C-B0D7-F843D273F59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="114">
   <si>
     <t>요양기관명</t>
   </si>
@@ -51,18 +61,6 @@
     <t>35.101054959857635</t>
   </si>
   <si>
-    <t>인제대학교부산백병원</t>
-  </si>
-  <si>
-    <t>부산광역시 부산진구 복지로 75, 진사로83번길 75 진사로83번길 81, 1층(일부), 3층 (개금동)</t>
-  </si>
-  <si>
-    <t>129.091228235955</t>
-  </si>
-  <si>
-    <t>34.8126158451912</t>
-  </si>
-  <si>
     <t>동아대학교병원</t>
   </si>
   <si>
@@ -114,15 +112,6 @@
     <t>35.20472738080871</t>
   </si>
   <si>
-    <t>학교법인 춘해병원</t>
-  </si>
-  <si>
-    <t>부산광역시 부산진구 중앙대로 605-605 지상1층~지상9층 (범천동)</t>
-  </si>
-  <si>
-    <t>학교법인)동의병원</t>
-  </si>
-  <si>
     <t>부산광역시 부산진구 양정로 62 지상2ㆍ3ㆍ10층 각 일부/ 지하1ㆍ지상1ㆍ지상4~지상8층 전층 (양정동)</t>
   </si>
   <si>
@@ -312,9 +301,6 @@
     <t>35.15017248010657</t>
   </si>
   <si>
-    <t>의료법인은성의료재단좋은삼선병원</t>
-  </si>
-  <si>
     <t>부산광역시 사상구 가야대로 326 (주례동)</t>
   </si>
   <si>
@@ -370,34 +356,49 @@
   </si>
   <si>
     <t>35.09224195508148</t>
+  </si>
+  <si>
+    <t>학교법인동의병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의료법인 은성의료재단좋은삼선병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="DD/MM/YY" numFmtId="165"/>
-    <numFmt formatCode="DD/MM/YYYY\ HH:MM:SS" numFmtId="166"/>
-    <numFmt formatCode="HH:MM:SS" numFmtId="167"/>
-    <numFmt formatCode="DD/MM/YYYY\ HH:MM:SS.000" numFmtId="168"/>
-    <numFmt formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;" numFmtId="169"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
-  <fills count="1">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -406,36 +407,340 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="164">
-</xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" xfId="0"/>
-    <xf numFmtId="165" xfId="0"/>
-    <xf numFmtId="166" xfId="0"/>
-    <xf numFmtId="167" xfId="0"/>
-    <xf numFmtId="168" xfId="0"/>
-    <xf numFmtId="169" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{8525DC14-8DA8-406D-96E6-95F94398F4D3}"/>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1024" width="15"/>
+    <col min="1" max="1" width="29.36328125" customWidth="1"/>
     <col min="2" max="1024" width="15"/>
-    <col min="3" max="1024" width="15"/>
-    <col min="4" max="1024" width="15"/>
-    <col min="5" max="1024" width="15"/>
-    <col min="6" max="1024" width="15"/>
-    <col min="7" max="1024" width="15"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -481,7 +786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -495,7 +800,7 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>664</v>
+        <v>783</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -504,35 +809,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>783</v>
+        <v>434</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -541,7 +846,7 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>434</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -550,12 +855,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -564,7 +869,7 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>211</v>
+        <v>355</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -573,380 +878,380 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7">
+        <v>360</v>
+      </c>
+      <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="E7">
-        <v>355</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8">
+        <v>792</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c r="E8">
-        <v>189</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
       <c r="G8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9">
-        <v>360</v>
+        <v>704</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10">
-        <v>792</v>
+        <v>344</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11">
-        <v>704</v>
+        <v>288</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12">
-        <v>344</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14">
-        <v>120</v>
+        <v>292</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15">
-        <v>244</v>
+        <v>331</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16">
-        <v>292</v>
+        <v>194</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17">
-        <v>331</v>
+        <v>430</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E18">
-        <v>194</v>
+        <v>361</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E19">
-        <v>430</v>
+        <v>239</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E21">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E22">
-        <v>311</v>
+        <v>436</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
         <v>92</v>
       </c>
+    </row>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -955,7 +1260,7 @@
         <v>93</v>
       </c>
       <c r="E23">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="F23" t="s">
         <v>94</v>
@@ -964,12 +1269,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -978,7 +1283,7 @@
         <v>97</v>
       </c>
       <c r="E24">
-        <v>436</v>
+        <v>216</v>
       </c>
       <c r="F24" t="s">
         <v>98</v>
@@ -987,12 +1292,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -1001,7 +1306,7 @@
         <v>101</v>
       </c>
       <c r="E25">
-        <v>320</v>
+        <v>229</v>
       </c>
       <c r="F25" t="s">
         <v>102</v>
@@ -1010,12 +1315,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -1024,7 +1329,7 @@
         <v>105</v>
       </c>
       <c r="E26">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="F26" t="s">
         <v>106</v>
@@ -1033,12 +1338,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1047,7 +1352,7 @@
         <v>109</v>
       </c>
       <c r="E27">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="F27" t="s">
         <v>110</v>
@@ -1056,52 +1361,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E28">
-        <v>239</v>
-      </c>
-      <c r="F28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29">
-        <v>200</v>
-      </c>
-      <c r="F29" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" t="s">
-        <v>119</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>